--- a/forecast_summary_B0BH79FMW3.xlsx
+++ b/forecast_summary_B0BH79FMW3.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>4.194393909831271</v>
       </c>
       <c r="D2" t="n">
-        <v>48.81206776529147</v>
+        <v>48.07289275605067</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>3.718593833279806</v>
       </c>
       <c r="D3" t="n">
-        <v>48.04501698844002</v>
+        <v>43.84924615534685</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>2.369579169943724</v>
       </c>
       <c r="D4" t="n">
-        <v>41.75271180404231</v>
+        <v>45.77554555060318</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>0.7711601412380977</v>
       </c>
       <c r="D5" t="n">
-        <v>45.9938705128245</v>
+        <v>40.2407024350493</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.02183336431592853</v>
       </c>
       <c r="D6" t="n">
-        <v>41.5375838698094</v>
+        <v>43.12318810466101</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>0.0946035275814647</v>
       </c>
       <c r="D7" t="n">
-        <v>40.25974993114007</v>
+        <v>44.78822566509328</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>-0.254053697487847</v>
       </c>
       <c r="D8" t="n">
-        <v>41.55518306921628</v>
+        <v>42.93325400640484</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>-1.784977416243502</v>
       </c>
       <c r="D9" t="n">
-        <v>39.49509379157904</v>
+        <v>42.62883769762668</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>-3.502268934422962</v>
       </c>
       <c r="D10" t="n">
-        <v>38.22070986695301</v>
+        <v>40.69971465978393</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-3.657999684826795</v>
       </c>
       <c r="D11" t="n">
-        <v>37.43792975178706</v>
+        <v>37.03634390759908</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>-1.948857184723247</v>
       </c>
       <c r="D12" t="n">
-        <v>41.58696161638531</v>
+        <v>42.59754915995648</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-0.1032278789131094</v>
       </c>
       <c r="D13" t="n">
-        <v>43.65028485945526</v>
+        <v>43.1742047412701</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.04260654733394521</v>
       </c>
       <c r="D14" t="n">
-        <v>42.77263413135004</v>
+        <v>43.57555174504828</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>-1.324302785394078</v>
       </c>
       <c r="D15" t="n">
-        <v>41.01476008128269</v>
+        <v>39.67218820501618</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>-2.315252669914057</v>
       </c>
       <c r="D16" t="n">
-        <v>44.34182637111916</v>
+        <v>38.45563374961061</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
         <v>-1.715316423269814</v>
       </c>
       <c r="D17" t="n">
-        <v>37.46275386181892</v>
+        <v>42.35277821459248</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
         <v>-0.4195971313618135</v>
       </c>
       <c r="D18" t="n">
-        <v>42.17149177749863</v>
+        <v>44.45635776436139</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
         <v>-0.1638092591416483</v>
       </c>
       <c r="D19" t="n">
-        <v>44.93788893608852</v>
+        <v>41.35252252460752</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-1.262162732131814</v>
       </c>
       <c r="D20" t="n">
-        <v>39.30131444998574</v>
+        <v>38.7655342245107</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
         <v>-2.296716540890087</v>
       </c>
       <c r="D21" t="n">
-        <v>39.95496296503332</v>
+        <v>38.78097051467932</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 AERO G</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>269</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
